--- a/Luban/Project/Datas/__beans__.xlsx
+++ b/Luban/Project/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\GF_Survivor\Luban\Project\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13FC730-3EE3-49D9-A96E-4A3DEE7B73E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA899B-1F2D-45A0-A94F-0AF754F047D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="630" windowWidth="21260" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1750" yWindow="910" windowWidth="21260" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -207,6 +207,26 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Numeric</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipment.AttributeData</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(array#sep=,),float</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -292,19 +312,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -582,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -625,13 +646,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -856,31 +877,61 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
